--- a/app/static/uploads/code_mr_only_sheet_001.xlsx
+++ b/app/static/uploads/code_mr_only_sheet_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilo/python/webtools/app/static/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED0482-B475-9E4D-A411-030997E6B17E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF957F0A-A2C3-5F4B-94F8-B1BADD529340}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="49600" windowHeight="28340" xr2:uid="{38EA51BE-BD23-C24E-AFE8-82422AD32D72}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5812" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5813" uniqueCount="1767">
   <si>
     <t>UNIT</t>
   </si>
@@ -5323,6 +5323,9 @@
   </si>
   <si>
     <t>000S-DL-0610-006</t>
+  </si>
+  <si>
+    <t>076551C-018-DW-0810-002</t>
   </si>
 </sst>
 </file>
@@ -5678,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED487F6-61E2-D642-BFF3-B043E437AB21}">
   <dimension ref="A1:N810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6256,7 +6259,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>89</v>
+        <v>1766</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>1739</v>
